--- a/biology/Zoologie/Arbanitis_crawfordorum/Arbanitis_crawfordorum.xlsx
+++ b/biology/Zoologie/Arbanitis_crawfordorum/Arbanitis_crawfordorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbanitis crawfordorum est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbanitis crawfordorum est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre vers Smiths Lake[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre vers Smiths Lake.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 6,45 mm de long sur 5,10 mm et l'abdomen 5,89 mm de long sur 3,68 mm et la carapace de la femelle paratype mesure 13,62 mm de long sur 9,64 mm et l'abdomen 14,84 mm de long sur 8,72 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 6,45 mm de long sur 5,10 mm et l'abdomen 5,89 mm de long sur 3,68 mm et la carapace de la femelle paratype mesure 13,62 mm de long sur 9,64 mm et l'abdomen 14,84 mm de long sur 8,72 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Michael et Janice Crawford[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Michael et Janice Crawford.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wishart &amp; Rowell, 2008 : Trapdoor spiders of the genus Misgolas (Mygalomorphae: Idiopidae) from eastern New South Wales, with notes on genetic variation. Records of the Australian Museum, vol. 60, no , p. 45-86 (texte intégral).</t>
         </is>
